--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.140316</v>
+        <v>31.14997866666667</v>
       </c>
       <c r="H2">
-        <v>45.420948</v>
+        <v>93.44993600000001</v>
       </c>
       <c r="I2">
-        <v>0.3229157245229468</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="J2">
-        <v>0.3229157245229467</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.024647</v>
+        <v>0.07075833333333333</v>
       </c>
       <c r="N2">
-        <v>0.07394099999999999</v>
+        <v>0.212275</v>
       </c>
       <c r="O2">
-        <v>0.002001060000785907</v>
+        <v>0.006176824525282918</v>
       </c>
       <c r="P2">
-        <v>0.002001060000785907</v>
+        <v>0.006176824525282918</v>
       </c>
       <c r="Q2">
-        <v>0.3731633684519999</v>
+        <v>2.204120573822222</v>
       </c>
       <c r="R2">
-        <v>3.358470316067999</v>
+        <v>19.8370851644</v>
       </c>
       <c r="S2">
-        <v>0.0006461737399676696</v>
+        <v>0.002854767102897569</v>
       </c>
       <c r="T2">
-        <v>0.0006461737399676695</v>
+        <v>0.002854767102897569</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.140316</v>
+        <v>31.14997866666667</v>
       </c>
       <c r="H3">
-        <v>45.420948</v>
+        <v>93.44993600000001</v>
       </c>
       <c r="I3">
-        <v>0.3229157245229468</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="J3">
-        <v>0.3229157245229467</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.202722</v>
       </c>
       <c r="O3">
-        <v>0.03254917956567031</v>
+        <v>0.03499706864537662</v>
       </c>
       <c r="P3">
-        <v>0.03254917956567031</v>
+        <v>0.03499706864537662</v>
       </c>
       <c r="Q3">
-        <v>6.069863713384</v>
+        <v>12.48825488064356</v>
       </c>
       <c r="R3">
-        <v>54.628773420456</v>
+        <v>112.394293925792</v>
       </c>
       <c r="S3">
-        <v>0.01051064190207592</v>
+        <v>0.01617473183149768</v>
       </c>
       <c r="T3">
-        <v>0.01051064190207592</v>
+        <v>0.01617473183149768</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.140316</v>
+        <v>31.14997866666667</v>
       </c>
       <c r="H4">
-        <v>45.420948</v>
+        <v>93.44993600000001</v>
       </c>
       <c r="I4">
-        <v>0.3229157245229468</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="J4">
-        <v>0.3229157245229467</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2098296666666667</v>
+        <v>0.1538076666666666</v>
       </c>
       <c r="N4">
-        <v>0.6294890000000001</v>
+        <v>0.461423</v>
       </c>
       <c r="O4">
-        <v>0.01703581583742065</v>
+        <v>0.01342658769487514</v>
       </c>
       <c r="P4">
-        <v>0.01703581583742065</v>
+        <v>0.01342658769487514</v>
       </c>
       <c r="Q4">
-        <v>3.176887459508</v>
+        <v>4.791105535436444</v>
       </c>
       <c r="R4">
-        <v>28.591987135572</v>
+        <v>43.119949818928</v>
       </c>
       <c r="S4">
-        <v>0.00550113281398018</v>
+        <v>0.006205418447392791</v>
       </c>
       <c r="T4">
-        <v>0.005501132813980179</v>
+        <v>0.006205418447392791</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.140316</v>
+        <v>31.14997866666667</v>
       </c>
       <c r="H5">
-        <v>45.420948</v>
+        <v>93.44993600000001</v>
       </c>
       <c r="I5">
-        <v>0.3229157245229468</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="J5">
-        <v>0.3229157245229467</v>
+        <v>0.4621739036316256</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.681588</v>
+        <v>10.82998133333333</v>
       </c>
       <c r="N5">
-        <v>35.044764</v>
+        <v>32.489944</v>
       </c>
       <c r="O5">
-        <v>0.9484139445961232</v>
+        <v>0.9453995191344653</v>
       </c>
       <c r="P5">
-        <v>0.9484139445961232</v>
+        <v>0.9453995191344652</v>
       </c>
       <c r="Q5">
-        <v>176.862933701808</v>
+        <v>337.3536874937316</v>
       </c>
       <c r="R5">
-        <v>1591.766403316272</v>
+        <v>3036.183187443584</v>
       </c>
       <c r="S5">
-        <v>0.306257776066923</v>
+        <v>0.4369389862498375</v>
       </c>
       <c r="T5">
-        <v>0.3062577760669229</v>
+        <v>0.4369389862498375</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.94069966666666</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H6">
-        <v>56.82209899999999</v>
+        <v>56.822099</v>
       </c>
       <c r="I6">
-        <v>0.4039710766824948</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="J6">
-        <v>0.4039710766824947</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.024647</v>
+        <v>0.07075833333333333</v>
       </c>
       <c r="N6">
-        <v>0.07394099999999999</v>
+        <v>0.212275</v>
       </c>
       <c r="O6">
-        <v>0.002001060000785907</v>
+        <v>0.006176824525282918</v>
       </c>
       <c r="P6">
-        <v>0.002001060000785907</v>
+        <v>0.006176824525282918</v>
       </c>
       <c r="Q6">
-        <v>0.4668314246843333</v>
+        <v>1.340212340580555</v>
       </c>
       <c r="R6">
-        <v>4.201482822158999</v>
+        <v>12.061911065225</v>
       </c>
       <c r="S6">
-        <v>0.0008083703630237568</v>
+        <v>0.001735837025536206</v>
       </c>
       <c r="T6">
-        <v>0.0008083703630237567</v>
+        <v>0.001735837025536206</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.94069966666666</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H7">
-        <v>56.82209899999999</v>
+        <v>56.822099</v>
       </c>
       <c r="I7">
-        <v>0.4039710766824948</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="J7">
-        <v>0.4039710766824947</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>1.202722</v>
       </c>
       <c r="O7">
-        <v>0.03254917956567031</v>
+        <v>0.03499706864537662</v>
       </c>
       <c r="P7">
-        <v>0.03254917956567031</v>
+        <v>0.03499706864537662</v>
       </c>
       <c r="Q7">
-        <v>7.593465394830888</v>
+        <v>7.593465394830889</v>
       </c>
       <c r="R7">
-        <v>68.34118855347799</v>
+        <v>68.34118855347801</v>
       </c>
       <c r="S7">
-        <v>0.01314892711427569</v>
+        <v>0.009835022395604555</v>
       </c>
       <c r="T7">
-        <v>0.01314892711427569</v>
+        <v>0.009835022395604555</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.94069966666666</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H8">
-        <v>56.82209899999999</v>
+        <v>56.822099</v>
       </c>
       <c r="I8">
-        <v>0.4039710766824948</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="J8">
-        <v>0.4039710766824947</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2098296666666667</v>
+        <v>0.1538076666666666</v>
       </c>
       <c r="N8">
-        <v>0.6294890000000001</v>
+        <v>0.461423</v>
       </c>
       <c r="O8">
-        <v>0.01703581583742065</v>
+        <v>0.01342658769487514</v>
       </c>
       <c r="P8">
-        <v>0.01703581583742065</v>
+        <v>0.01342658769487514</v>
       </c>
       <c r="Q8">
-        <v>3.974320697490111</v>
+        <v>2.913224820764111</v>
       </c>
       <c r="R8">
-        <v>35.768886277411</v>
+        <v>26.219023386877</v>
       </c>
       <c r="S8">
-        <v>0.006881976866007516</v>
+        <v>0.003773195750012921</v>
       </c>
       <c r="T8">
-        <v>0.006881976866007515</v>
+        <v>0.003773195750012921</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.94069966666666</v>
+        <v>18.94069966666667</v>
       </c>
       <c r="H9">
-        <v>56.82209899999999</v>
+        <v>56.822099</v>
       </c>
       <c r="I9">
-        <v>0.4039710766824948</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="J9">
-        <v>0.4039710766824947</v>
+        <v>0.2810241764892454</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.681588</v>
+        <v>10.82998133333333</v>
       </c>
       <c r="N9">
-        <v>35.044764</v>
+        <v>32.489944</v>
       </c>
       <c r="O9">
-        <v>0.9484139445961232</v>
+        <v>0.9453995191344653</v>
       </c>
       <c r="P9">
-        <v>0.9484139445961232</v>
+        <v>0.9453995191344652</v>
       </c>
       <c r="Q9">
-        <v>221.2574499377373</v>
+        <v>205.1274238302729</v>
       </c>
       <c r="R9">
-        <v>1991.317049439636</v>
+        <v>1846.146814472456</v>
       </c>
       <c r="S9">
-        <v>0.3831318023391878</v>
+        <v>0.2656801213180917</v>
       </c>
       <c r="T9">
-        <v>0.3831318023391878</v>
+        <v>0.2656801213180917</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.584029000000001</v>
+        <v>14.86848</v>
       </c>
       <c r="H10">
-        <v>28.752087</v>
+        <v>44.60544</v>
       </c>
       <c r="I10">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="J10">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.024647</v>
+        <v>0.07075833333333333</v>
       </c>
       <c r="N10">
-        <v>0.07394099999999999</v>
+        <v>0.212275</v>
       </c>
       <c r="O10">
-        <v>0.002001060000785907</v>
+        <v>0.006176824525282918</v>
       </c>
       <c r="P10">
-        <v>0.002001060000785907</v>
+        <v>0.006176824525282918</v>
       </c>
       <c r="Q10">
-        <v>0.236217562763</v>
+        <v>1.052068864</v>
       </c>
       <c r="R10">
-        <v>2.125958064867</v>
+        <v>9.468619776000001</v>
       </c>
       <c r="S10">
-        <v>0.0004090368961181924</v>
+        <v>0.001362634884225831</v>
       </c>
       <c r="T10">
-        <v>0.0004090368961181923</v>
+        <v>0.001362634884225831</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.584029000000001</v>
+        <v>14.86848</v>
       </c>
       <c r="H11">
-        <v>28.752087</v>
+        <v>44.60544</v>
       </c>
       <c r="I11">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="J11">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.202722</v>
       </c>
       <c r="O11">
-        <v>0.03254917956567031</v>
+        <v>0.03499706864537662</v>
       </c>
       <c r="P11">
-        <v>0.03254917956567031</v>
+        <v>0.03499706864537662</v>
       </c>
       <c r="Q11">
-        <v>3.842307508979334</v>
+        <v>5.96088266752</v>
       </c>
       <c r="R11">
-        <v>34.580767580814</v>
+        <v>53.64794400768</v>
       </c>
       <c r="S11">
-        <v>0.006653381395613592</v>
+        <v>0.007720508553649088</v>
       </c>
       <c r="T11">
-        <v>0.00665338139561359</v>
+        <v>0.007720508553649088</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.584029000000001</v>
+        <v>14.86848</v>
       </c>
       <c r="H12">
-        <v>28.752087</v>
+        <v>44.60544</v>
       </c>
       <c r="I12">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="J12">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2098296666666667</v>
+        <v>0.1538076666666666</v>
       </c>
       <c r="N12">
-        <v>0.6294890000000001</v>
+        <v>0.461423</v>
       </c>
       <c r="O12">
-        <v>0.01703581583742065</v>
+        <v>0.01342658769487514</v>
       </c>
       <c r="P12">
-        <v>0.01703581583742065</v>
+        <v>0.01342658769487514</v>
       </c>
       <c r="Q12">
-        <v>2.011013610393667</v>
+        <v>2.28688621568</v>
       </c>
       <c r="R12">
-        <v>18.099122493543</v>
+        <v>20.58197594112</v>
       </c>
       <c r="S12">
-        <v>0.003482292999831553</v>
+        <v>0.002961964791822568</v>
       </c>
       <c r="T12">
-        <v>0.003482292999831552</v>
+        <v>0.002961964791822568</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.584029000000001</v>
+        <v>14.86848</v>
       </c>
       <c r="H13">
-        <v>28.752087</v>
+        <v>44.60544</v>
       </c>
       <c r="I13">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="J13">
-        <v>0.2044101106201438</v>
+        <v>0.2206044349565553</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.681588</v>
+        <v>10.82998133333333</v>
       </c>
       <c r="N13">
-        <v>35.044764</v>
+        <v>32.489944</v>
       </c>
       <c r="O13">
-        <v>0.9484139445961232</v>
+        <v>0.9453995191344653</v>
       </c>
       <c r="P13">
-        <v>0.9484139445961232</v>
+        <v>0.9453995191344652</v>
       </c>
       <c r="Q13">
-        <v>111.956678158052</v>
+        <v>161.02536085504</v>
       </c>
       <c r="R13">
-        <v>1007.610103422468</v>
+        <v>1449.22824769536</v>
       </c>
       <c r="S13">
-        <v>0.1938653993285805</v>
+        <v>0.2085593267268578</v>
       </c>
       <c r="T13">
-        <v>0.1938653993285804</v>
+        <v>0.2085593267268578</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.221232000000001</v>
+        <v>2.439668</v>
       </c>
       <c r="H14">
-        <v>9.663696000000002</v>
+        <v>7.319004</v>
       </c>
       <c r="I14">
-        <v>0.06870308817441467</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="J14">
-        <v>0.06870308817441464</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.024647</v>
+        <v>0.07075833333333333</v>
       </c>
       <c r="N14">
-        <v>0.07394099999999999</v>
+        <v>0.212275</v>
       </c>
       <c r="O14">
-        <v>0.002001060000785907</v>
+        <v>0.006176824525282918</v>
       </c>
       <c r="P14">
-        <v>0.002001060000785907</v>
+        <v>0.006176824525282918</v>
       </c>
       <c r="Q14">
-        <v>0.07939370510400001</v>
+        <v>0.1726268415666666</v>
       </c>
       <c r="R14">
-        <v>0.714543345936</v>
+        <v>1.5536415741</v>
       </c>
       <c r="S14">
-        <v>0.0001374790016762885</v>
+        <v>0.0002235855126233122</v>
       </c>
       <c r="T14">
-        <v>0.0001374790016762884</v>
+        <v>0.0002235855126233122</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.221232000000001</v>
+        <v>2.439668</v>
       </c>
       <c r="H15">
-        <v>9.663696000000002</v>
+        <v>7.319004</v>
       </c>
       <c r="I15">
-        <v>0.06870308817441467</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="J15">
-        <v>0.06870308817441464</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.202722</v>
       </c>
       <c r="O15">
-        <v>0.03254917956567031</v>
+        <v>0.03499706864537662</v>
       </c>
       <c r="P15">
-        <v>0.03254917956567031</v>
+        <v>0.03499706864537662</v>
       </c>
       <c r="Q15">
-        <v>1.291415531168</v>
+        <v>0.9780807920986666</v>
       </c>
       <c r="R15">
-        <v>11.622739780512</v>
+        <v>8.802727128888</v>
       </c>
       <c r="S15">
-        <v>0.002236229153705104</v>
+        <v>0.001266805864625299</v>
       </c>
       <c r="T15">
-        <v>0.002236229153705103</v>
+        <v>0.001266805864625299</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.221232000000001</v>
+        <v>2.439668</v>
       </c>
       <c r="H16">
-        <v>9.663696000000002</v>
+        <v>7.319004</v>
       </c>
       <c r="I16">
-        <v>0.06870308817441467</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="J16">
-        <v>0.06870308817441464</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2098296666666667</v>
+        <v>0.1538076666666666</v>
       </c>
       <c r="N16">
-        <v>0.6294890000000001</v>
+        <v>0.461423</v>
       </c>
       <c r="O16">
-        <v>0.01703581583742065</v>
+        <v>0.01342658769487514</v>
       </c>
       <c r="P16">
-        <v>0.01703581583742065</v>
+        <v>0.01342658769487514</v>
       </c>
       <c r="Q16">
-        <v>0.6759100368160001</v>
+        <v>0.3752396425213332</v>
       </c>
       <c r="R16">
-        <v>6.083190331344002</v>
+        <v>3.377156782691999</v>
       </c>
       <c r="S16">
-        <v>0.001170413157601401</v>
+        <v>0.000486008705646857</v>
       </c>
       <c r="T16">
-        <v>0.0011704131576014</v>
+        <v>0.000486008705646857</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.221232000000001</v>
+        <v>2.439668</v>
       </c>
       <c r="H17">
-        <v>9.663696000000002</v>
+        <v>7.319004</v>
       </c>
       <c r="I17">
-        <v>0.06870308817441467</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="J17">
-        <v>0.06870308817441464</v>
+        <v>0.03619748492257375</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.681588</v>
+        <v>10.82998133333333</v>
       </c>
       <c r="N17">
-        <v>35.044764</v>
+        <v>32.489944</v>
       </c>
       <c r="O17">
-        <v>0.9484139445961232</v>
+        <v>0.9453995191344653</v>
       </c>
       <c r="P17">
-        <v>0.9484139445961232</v>
+        <v>0.9453995191344652</v>
       </c>
       <c r="Q17">
-        <v>37.629105076416</v>
+        <v>26.42155889953067</v>
       </c>
       <c r="R17">
-        <v>338.661945687744</v>
+        <v>237.794030095776</v>
       </c>
       <c r="S17">
-        <v>0.06515896686143188</v>
+        <v>0.03422108483967828</v>
       </c>
       <c r="T17">
-        <v>0.06515896686143186</v>
+        <v>0.03422108483967828</v>
       </c>
     </row>
   </sheetData>
